--- a/Database Pattern.xlsx
+++ b/Database Pattern.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SANBAY" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>MÃ CHUYẾN BAY</t>
   </si>
@@ -98,42 +98,6 @@
     <t>ND009</t>
   </si>
   <si>
-    <t>NOI BAU</t>
-  </si>
-  <si>
-    <t>AKDJASKD</t>
-  </si>
-  <si>
-    <t>DÂD</t>
-  </si>
-  <si>
-    <t>AÁDASD</t>
-  </si>
-  <si>
-    <t>ÁDASDA</t>
-  </si>
-  <si>
-    <t>DASDAS</t>
-  </si>
-  <si>
-    <t>ĐÂSD</t>
-  </si>
-  <si>
-    <t>ĐÁ</t>
-  </si>
-  <si>
-    <t>ÁDASD</t>
-  </si>
-  <si>
-    <t>DASD</t>
-  </si>
-  <si>
-    <t>DAÁ</t>
-  </si>
-  <si>
-    <t>DSADAS</t>
-  </si>
-  <si>
     <t>AB98</t>
   </si>
   <si>
@@ -141,6 +105,60 @@
   </si>
   <si>
     <t>AB100</t>
+  </si>
+  <si>
+    <t>SÂN BAY 1</t>
+  </si>
+  <si>
+    <t>SÂN BAY 2</t>
+  </si>
+  <si>
+    <t>SÂN BAY 3</t>
+  </si>
+  <si>
+    <t>SÂN BAY 4</t>
+  </si>
+  <si>
+    <t>SÂN BAY 5</t>
+  </si>
+  <si>
+    <t>SÂN BAY 6</t>
+  </si>
+  <si>
+    <t>SÂN BAY 7</t>
+  </si>
+  <si>
+    <t>SÂN BAY 8</t>
+  </si>
+  <si>
+    <t>SÂN BAY 9</t>
+  </si>
+  <si>
+    <t>VIỆT NAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÀO </t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>HÀN XẺNG</t>
+  </si>
+  <si>
+    <t>TRUNG QUẦN QUÈ</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>MALAI</t>
   </si>
 </sst>
 </file>
@@ -473,13 +491,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -500,10 +519,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,10 +530,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +544,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,7 +555,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,10 +563,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,10 +574,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,10 +585,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,10 +596,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,10 +607,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -603,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M495"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +639,7 @@
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="28.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -665,7 +684,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
         <v>1500000</v>
@@ -708,7 +727,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>150000000</v>
@@ -751,7 +770,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>17000000</v>
@@ -5730,7 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5758,7 +5777,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>

--- a/Database Pattern.xlsx
+++ b/Database Pattern.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="SANBAY" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>MÃ CHUYẾN BAY</t>
   </si>
@@ -159,6 +159,36 @@
   </si>
   <si>
     <t>MALAI</t>
+  </si>
+  <si>
+    <t>TỈNH</t>
+  </si>
+  <si>
+    <t>QUẢNG NAM</t>
+  </si>
+  <si>
+    <t>QUÃNG NGÃI</t>
+  </si>
+  <si>
+    <t>BÌNH ĐỊNH</t>
+  </si>
+  <si>
+    <t>PHÚ YÊN</t>
+  </si>
+  <si>
+    <t>LẠNG SƠN</t>
+  </si>
+  <si>
+    <t>TPHCM</t>
+  </si>
+  <si>
+    <t>HÀ NỘI</t>
+  </si>
+  <si>
+    <t>TUYÊN QUANG</t>
+  </si>
+  <si>
+    <t>HÀ TĨNH</t>
   </si>
 </sst>
 </file>
@@ -488,22 +518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -511,10 +542,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -522,10 +556,13 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -533,10 +570,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -544,10 +584,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -555,10 +598,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -566,10 +612,13 @@
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -577,10 +626,13 @@
         <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -588,10 +640,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -599,10 +654,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -610,6 +668,9 @@
         <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -622,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
